--- a/src/main/webapp/WEB-INF/static/template/sku/skuTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/static/template/sku/skuTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sku</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,23 +412,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="6" max="7" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -441,22 +437,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/static/template/sku/skuTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/static/template/sku/skuTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>sku</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,19 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,9 +46,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,12 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,23 +399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="7" width="8.88671875" style="4"/>
-    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="1" max="6" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -437,19 +422,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -478,7 +457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
